--- a/data/Descriptors_crosstaxa_review.xlsx
+++ b/data/Descriptors_crosstaxa_review.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4977EBFB-2A32-4775-BC30-8E8C13476B01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C169AEE-B244-4121-B72A-D47A150A77EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="132">
   <si>
     <t>PaperNumber</t>
   </si>
@@ -411,6 +411,33 @@
   </si>
   <si>
     <t>We defined 'family' as the minimum taxonomic level to be cross-taxa (as niche conservatism used to be low above family level)</t>
+  </si>
+  <si>
+    <t>Are functional aspects based on traits or habitat affinities</t>
+  </si>
+  <si>
+    <t>trait</t>
+  </si>
+  <si>
+    <t>habitat</t>
+  </si>
+  <si>
+    <t>Whether functional perspective is based on traits or rough definitions of trait (often habitat)</t>
+  </si>
+  <si>
+    <t>Taxonomic level</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>phylum</t>
+  </si>
+  <si>
+    <t>Taxonomic level embracing the taxa being studied.</t>
   </si>
 </sst>
 </file>
@@ -797,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -808,29 +835,30 @@
     <col min="1" max="1" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="16" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="27" style="4" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="117.7109375" style="6" customWidth="1"/>
-    <col min="10" max="10" width="71.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="29.5703125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="48.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.5703125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="61.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="4" customWidth="1"/>
-    <col min="22" max="22" width="21.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="4"/>
+    <col min="4" max="5" width="15.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="27" style="4" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="117.7109375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="71.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.140625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="29.5703125" style="4" customWidth="1"/>
+    <col min="19" max="19" width="48.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.5703125" style="4" customWidth="1"/>
+    <col min="21" max="21" width="61.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.28515625" style="4" customWidth="1"/>
+    <col min="24" max="24" width="21.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="2" customFormat="1" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -843,392 +871,413 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="U2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="D3" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="T3" s="4" t="s">
         <v>27</v>
       </c>
       <c r="U3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F4" s="4" t="s">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="L4" s="4" t="s">
+      <c r="K4" s="7"/>
+      <c r="M4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="W4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="X4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="Y4" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F5" s="4" t="s">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="L5" s="4" t="s">
+      <c r="K5" s="7"/>
+      <c r="M5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="U5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="W5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="X5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="Y5" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="F6" s="4" t="s">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="G6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="M6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="Q6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="U6" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="X6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="W6" s="4" t="s">
+      <c r="Y6" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H7" s="4" t="s">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="I7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="M7" s="4" t="s">
+      <c r="K7" s="7"/>
+      <c r="O7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="P7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="Q7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="X7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="W7" s="4" t="s">
+      <c r="Y7" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H8" s="4" t="s">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="I8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="X8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="Y8" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H9" s="4" t="s">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="I9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W9" s="4" t="s">
+      <c r="Y9" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H10" s="4" t="s">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="I10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="W10" s="4" t="s">
+      <c r="K10" s="7"/>
+      <c r="Y10" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H11" s="4" t="s">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="I11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H12" s="4" t="s">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="I12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="J12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H13" s="4" t="s">
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="I13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="J13" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H14" s="4" t="s">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="I14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1238,10 +1287,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0ECF95-0BAF-4004-8653-DC069B16963C}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,153 +1364,169 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>16</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>120</v>
       </c>
     </row>
